--- a/kvision/ksample/mytable/docmind/001_8e68c.xlsx
+++ b/kvision/ksample/mytable/docmind/001_8e68c.xlsx
@@ -39,7 +39,7 @@
       <patternFill patternType="darkGray"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -61,13 +61,28 @@
         <color rgb="00FF0000"/>
       </bottom>
     </border>
+    <border>
+      <left style="thick">
+        <color rgb="00000000"/>
+      </left>
+      <right style="thick">
+        <color rgb="00000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="00000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="00000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -490,7 +505,7 @@
   </cols>
   <sheetData>
     <row r="1" ht="1492.15" customHeight="1">
-      <c r="A1" s="1" t="n"/>
+      <c r="A1" s="2" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/kvision/ksample/mytable/docmind/001_8e68c.xlsx
+++ b/kvision/ksample/mytable/docmind/001_8e68c.xlsx
@@ -39,7 +39,7 @@
       <patternFill patternType="darkGray"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -75,14 +75,29 @@
         <color rgb="00000000"/>
       </bottom>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="00101010"/>
+      </left>
+      <right style="thin">
+        <color rgb="00101010"/>
+      </right>
+      <top style="thin">
+        <color rgb="00101010"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="00101010"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -505,7 +520,7 @@
   </cols>
   <sheetData>
     <row r="1" ht="1492.15" customHeight="1">
-      <c r="A1" s="2" t="n"/>
+      <c r="A1" s="3" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
